--- a/صيدليات دكتور مصطفي طلعت_2026-01-02_22-23.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-02_22-23.xlsx
@@ -107,6 +107,9 @@
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>30:0</t>
   </si>
   <si>
     <t>Friday, 2 January, 2026 10:23 PM</t>
@@ -1398,17 +1404,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>43.329999999999998</v>
+        <v>86.659999999999997</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1416,7 +1422,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1442,7 +1448,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1468,7 +1474,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1494,7 +1500,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1502,7 +1508,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1520,7 +1526,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1528,7 +1534,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1546,7 +1552,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1554,7 +1560,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1572,7 +1578,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1598,7 +1604,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1624,7 +1630,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1632,7 +1638,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1650,7 +1656,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1658,7 +1664,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1676,7 +1682,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1684,7 +1690,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1702,7 +1708,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1728,7 +1734,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1754,7 +1760,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1780,7 +1786,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1806,7 +1812,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1814,7 +1820,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1970,7 +1976,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
@@ -2204,7 +2210,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2672,7 +2678,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -3218,7 +3224,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -3309,38 +3315,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="K94" s="11">
-        <v>6771.5200000000004</v>
-      </c>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="12">
+    <row r="94" ht="24.75" customHeight="1">
+      <c r="A94" s="6">
+        <v>91</v>
+      </c>
+      <c t="s" r="B94" s="7">
         <v>126</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c t="s" r="F95" s="13">
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c t="s" r="H94" s="8">
         <v>127</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-      <c t="s" r="I95" s="15">
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9">
+        <v>45</v>
+      </c>
+      <c r="M94" s="9"/>
+      <c r="N94" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" ht="26.25" customHeight="1">
+      <c r="K95" s="11">
+        <v>6859.8500000000004</v>
+      </c>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="12">
         <v>128</v>
       </c>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c t="s" r="F96" s="13">
+        <v>129</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c t="s" r="I96" s="15">
+        <v>130</v>
+      </c>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
+  <mergeCells count="284">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3618,10 +3650,13 @@
     <mergeCell ref="B93:G93"/>
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="I95:N95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="I96:N96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
